--- a/po_analysis_by_asin/B0C1ZZ57ZW_po_data.xlsx
+++ b/po_analysis_by_asin/B0C1ZZ57ZW_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,41 +452,145 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45320</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>750</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45327</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>570</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45355</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45362</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>10</v>
       </c>
     </row>
@@ -501,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,25 +627,65 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>570</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B9" t="n">
         <v>30</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C1ZZ57ZW_po_data.xlsx
+++ b/po_analysis_by_asin/B0C1ZZ57ZW_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,22 +578,6 @@
         <v>570</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B18" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -605,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,14 +665,6 @@
         <v>570</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B9" t="n">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B0C1ZZ57ZW_po_data.xlsx
+++ b/po_analysis_by_asin/B0C1ZZ57ZW_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -605,7 +606,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -663,6 +664,383 @@
       </c>
       <c r="B8" t="n">
         <v>570</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-265.8269485012258</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65.54797327841125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-241.7686739057561</v>
+      </c>
+      <c r="D3" t="n">
+        <v>88.02394547933854</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-231.1193107896818</v>
+      </c>
+      <c r="D4" t="n">
+        <v>105.0514776843997</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-197.0066266754478</v>
+      </c>
+      <c r="D5" t="n">
+        <v>120.3500004420433</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-104.7600718371033</v>
+      </c>
+      <c r="D6" t="n">
+        <v>197.1847716712437</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>113</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-46.11588207558689</v>
+      </c>
+      <c r="D7" t="n">
+        <v>277.8414085411758</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>134</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-31.51456434206747</v>
+      </c>
+      <c r="D8" t="n">
+        <v>297.1135971015117</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>155</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5.98860406231353</v>
+      </c>
+      <c r="D9" t="n">
+        <v>312.9476249603375</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>176</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.405744984650082</v>
+      </c>
+      <c r="D10" t="n">
+        <v>346.2283558114841</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>197</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30.44869702523624</v>
+      </c>
+      <c r="D11" t="n">
+        <v>352.1118849297521</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>218</v>
+      </c>
+      <c r="C12" t="n">
+        <v>56.26829269122157</v>
+      </c>
+      <c r="D12" t="n">
+        <v>379.3730459191249</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>239</v>
+      </c>
+      <c r="C13" t="n">
+        <v>79.15942111906421</v>
+      </c>
+      <c r="D13" t="n">
+        <v>403.8232705902613</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>281</v>
+      </c>
+      <c r="C14" t="n">
+        <v>128.1381026595836</v>
+      </c>
+      <c r="D14" t="n">
+        <v>439.6441002460469</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>386</v>
+      </c>
+      <c r="C15" t="n">
+        <v>220.9337730557192</v>
+      </c>
+      <c r="D15" t="n">
+        <v>544.5453460344065</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>470</v>
+      </c>
+      <c r="C16" t="n">
+        <v>299.5489285020234</v>
+      </c>
+      <c r="D16" t="n">
+        <v>644.4560647789617</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>491</v>
+      </c>
+      <c r="C17" t="n">
+        <v>324.9774017950258</v>
+      </c>
+      <c r="D17" t="n">
+        <v>661.6027700264656</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>513</v>
+      </c>
+      <c r="C18" t="n">
+        <v>350.4036466941164</v>
+      </c>
+      <c r="D18" t="n">
+        <v>672.9597983192131</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>534</v>
+      </c>
+      <c r="C19" t="n">
+        <v>370.0859107645706</v>
+      </c>
+      <c r="D19" t="n">
+        <v>694.4246326925141</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>555</v>
+      </c>
+      <c r="C20" t="n">
+        <v>385.6993167358921</v>
+      </c>
+      <c r="D20" t="n">
+        <v>712.1861776772017</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>576</v>
+      </c>
+      <c r="C21" t="n">
+        <v>408.8856595295068</v>
+      </c>
+      <c r="D21" t="n">
+        <v>735.7948680386878</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>597</v>
+      </c>
+      <c r="C22" t="n">
+        <v>419.5575047739869</v>
+      </c>
+      <c r="D22" t="n">
+        <v>764.6910982894377</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>618</v>
+      </c>
+      <c r="C23" t="n">
+        <v>468.5977580910555</v>
+      </c>
+      <c r="D23" t="n">
+        <v>783.2631069534166</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>639</v>
+      </c>
+      <c r="C24" t="n">
+        <v>479.2923069465805</v>
+      </c>
+      <c r="D24" t="n">
+        <v>813.2195925389061</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>660</v>
+      </c>
+      <c r="C25" t="n">
+        <v>497.79579361214</v>
+      </c>
+      <c r="D25" t="n">
+        <v>834.2404067927323</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C1ZZ57ZW_po_data.xlsx
+++ b/po_analysis_by_asin/B0C1ZZ57ZW_po_data.xlsx
@@ -677,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,16 +696,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -714,12 +704,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-265.8269485012258</v>
-      </c>
-      <c r="D2" t="n">
-        <v>65.54797327841125</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -728,12 +712,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>-241.7686739057561</v>
-      </c>
-      <c r="D3" t="n">
-        <v>88.02394547933854</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -742,12 +720,6 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>-231.1193107896818</v>
-      </c>
-      <c r="D4" t="n">
-        <v>105.0514776843997</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -756,12 +728,6 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
-        <v>-197.0066266754478</v>
-      </c>
-      <c r="D5" t="n">
-        <v>120.3500004420433</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -770,12 +736,6 @@
       <c r="B6" t="n">
         <v>50</v>
       </c>
-      <c r="C6" t="n">
-        <v>-104.7600718371033</v>
-      </c>
-      <c r="D6" t="n">
-        <v>197.1847716712437</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -784,12 +744,6 @@
       <c r="B7" t="n">
         <v>113</v>
       </c>
-      <c r="C7" t="n">
-        <v>-46.11588207558689</v>
-      </c>
-      <c r="D7" t="n">
-        <v>277.8414085411758</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -798,12 +752,6 @@
       <c r="B8" t="n">
         <v>134</v>
       </c>
-      <c r="C8" t="n">
-        <v>-31.51456434206747</v>
-      </c>
-      <c r="D8" t="n">
-        <v>297.1135971015117</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -812,12 +760,6 @@
       <c r="B9" t="n">
         <v>155</v>
       </c>
-      <c r="C9" t="n">
-        <v>-5.98860406231353</v>
-      </c>
-      <c r="D9" t="n">
-        <v>312.9476249603375</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -826,12 +768,6 @@
       <c r="B10" t="n">
         <v>176</v>
       </c>
-      <c r="C10" t="n">
-        <v>7.405744984650082</v>
-      </c>
-      <c r="D10" t="n">
-        <v>346.2283558114841</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -840,12 +776,6 @@
       <c r="B11" t="n">
         <v>197</v>
       </c>
-      <c r="C11" t="n">
-        <v>30.44869702523624</v>
-      </c>
-      <c r="D11" t="n">
-        <v>352.1118849297521</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -854,12 +784,6 @@
       <c r="B12" t="n">
         <v>218</v>
       </c>
-      <c r="C12" t="n">
-        <v>56.26829269122157</v>
-      </c>
-      <c r="D12" t="n">
-        <v>379.3730459191249</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -868,12 +792,6 @@
       <c r="B13" t="n">
         <v>239</v>
       </c>
-      <c r="C13" t="n">
-        <v>79.15942111906421</v>
-      </c>
-      <c r="D13" t="n">
-        <v>403.8232705902613</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -882,12 +800,6 @@
       <c r="B14" t="n">
         <v>281</v>
       </c>
-      <c r="C14" t="n">
-        <v>128.1381026595836</v>
-      </c>
-      <c r="D14" t="n">
-        <v>439.6441002460469</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -896,12 +808,6 @@
       <c r="B15" t="n">
         <v>386</v>
       </c>
-      <c r="C15" t="n">
-        <v>220.9337730557192</v>
-      </c>
-      <c r="D15" t="n">
-        <v>544.5453460344065</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -910,12 +816,6 @@
       <c r="B16" t="n">
         <v>470</v>
       </c>
-      <c r="C16" t="n">
-        <v>299.5489285020234</v>
-      </c>
-      <c r="D16" t="n">
-        <v>644.4560647789617</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -924,12 +824,6 @@
       <c r="B17" t="n">
         <v>491</v>
       </c>
-      <c r="C17" t="n">
-        <v>324.9774017950258</v>
-      </c>
-      <c r="D17" t="n">
-        <v>661.6027700264656</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -938,12 +832,6 @@
       <c r="B18" t="n">
         <v>513</v>
       </c>
-      <c r="C18" t="n">
-        <v>350.4036466941164</v>
-      </c>
-      <c r="D18" t="n">
-        <v>672.9597983192131</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -952,12 +840,6 @@
       <c r="B19" t="n">
         <v>534</v>
       </c>
-      <c r="C19" t="n">
-        <v>370.0859107645706</v>
-      </c>
-      <c r="D19" t="n">
-        <v>694.4246326925141</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -966,12 +848,6 @@
       <c r="B20" t="n">
         <v>555</v>
       </c>
-      <c r="C20" t="n">
-        <v>385.6993167358921</v>
-      </c>
-      <c r="D20" t="n">
-        <v>712.1861776772017</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -980,12 +856,6 @@
       <c r="B21" t="n">
         <v>576</v>
       </c>
-      <c r="C21" t="n">
-        <v>408.8856595295068</v>
-      </c>
-      <c r="D21" t="n">
-        <v>735.7948680386878</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -994,12 +864,6 @@
       <c r="B22" t="n">
         <v>597</v>
       </c>
-      <c r="C22" t="n">
-        <v>419.5575047739869</v>
-      </c>
-      <c r="D22" t="n">
-        <v>764.6910982894377</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1008,12 +872,6 @@
       <c r="B23" t="n">
         <v>618</v>
       </c>
-      <c r="C23" t="n">
-        <v>468.5977580910555</v>
-      </c>
-      <c r="D23" t="n">
-        <v>783.2631069534166</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1022,12 +880,6 @@
       <c r="B24" t="n">
         <v>639</v>
       </c>
-      <c r="C24" t="n">
-        <v>479.2923069465805</v>
-      </c>
-      <c r="D24" t="n">
-        <v>813.2195925389061</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1035,12 +887,6 @@
       </c>
       <c r="B25" t="n">
         <v>660</v>
-      </c>
-      <c r="C25" t="n">
-        <v>497.79579361214</v>
-      </c>
-      <c r="D25" t="n">
-        <v>834.2404067927323</v>
       </c>
     </row>
   </sheetData>
